--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
   <si>
     <t>TestcaseName</t>
   </si>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Workspace1\VEDBAN\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -181,7 +181,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,22 +533,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -741,17 +739,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="41" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
